--- a/POM_DataDriven/Excels/Testdata.xlsx
+++ b/POM_DataDriven/Excels/Testdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mst conf4\Desktop\Sophiya\Learning\Selenium Java_Neon\POM-DataDriven\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mst conf4\git\POM_DataDriven\POM_DataDriven\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820" tabRatio="779" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>TC ID</t>
   </si>
@@ -133,18 +133,37 @@
   </si>
   <si>
     <t>ParentAccount</t>
+  </si>
+  <si>
+    <t>Account Record</t>
+  </si>
+  <si>
+    <t>Edge Communication</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>automationuser@mstsolutions.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,6 +180,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -183,15 +209,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,17 +525,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -562,6 +593,23 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -569,9 +617,11 @@
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="B3:B4" r:id="rId3" display="https://login.salesforce.com/"/>
     <hyperlink ref="C3:C4" r:id="rId4" display="automation@mstsolutions.com"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -682,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -717,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -727,10 +777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,9 +788,10 @@
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,8 +804,11 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -765,7 +819,10 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/POM_DataDriven/Excels/Testdata.xlsx
+++ b/POM_DataDriven/Excels/Testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>TC ID</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>ParentAccount</t>
-  </si>
-  <si>
-    <t>Account Record</t>
   </si>
   <si>
     <t>Edge Communication</t>
@@ -527,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -596,13 +593,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -767,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -777,21 +774,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -804,11 +800,8 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -819,9 +812,6 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
         <v>29</v>
       </c>
     </row>
